--- a/inflearn_flask_project2/static/result.xlsx
+++ b/inflearn_flask_project2/static/result.xlsx
@@ -424,700 +424,700 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>카카오 주가 상승 후 장마감!!!</t>
+          <t>삼정KPMG "코로나19로 집안서 게임·미디어·엔터테인먼트 이용 ...</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>한동훈 일부 발언 누락..전문과 큰 차이는 없어</t>
+          <t>'코로나 불황' 탈출구는 어디에?</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>비트코인 1100만 원대 거래, 가상화폐 '혼조' 테마기업 주가 '상승'</t>
+          <t>수도권·광주 곳곳 코로나19 확산세 지속.."살얼음판 위 상황"(종합)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"제2의 SK바이오팜?" 장외시총 4조 넘어선 카카오게임즈 '폭풍질주'</t>
+          <t>트럼프는 "사라질 것"이랬는데..파우치 "코로나19 퇴치 안된다"</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>언택트 3대장, 외인 매도에 주가 '시름시름'</t>
+          <t>코로나19 여파에..광주전남 기업·가계빚 급증세 지속</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이동재·한동훈 대화 녹취파일까지 공개..'공모 입증' 스모킹건이...</t>
+          <t>젠바디, 코로나19·인플루엔자 멀티 진단키트 수출허가 획득</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22일, 거래소 외국인 순매도상위에 전기,전자 업종 4종목</t>
+          <t>WHO "코로나19 백신 첫 사용은 내년 초에나 가능"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'삼성전자' 다시 사들이는 외국인..이달 순매수액 1조원으로 코스...</t>
+          <t>[상보] 2분기 코로나에 시달린 현대기아차..영업익 '증발'</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>월가, 달러 휴지조각 전락 우려..더 사지마라, 테슬라·카카오·...</t>
+          <t>하나금융, 코로나 불구 '어닝 서프라이즈'</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[장외주식] 기업공개(IPO)관련주 강세</t>
+          <t>"민간 강사가 8사단에 코로나 전파".. 병사 14명 확진</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>카카오 주가 3% 상승 중!!</t>
+          <t>기아차도 코로나19 직격탄..국내 선전 불구 영업익 72% 감소</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[마켓트렌드]"국내 '언택트 3총사' 버블? 조정? '언택트 3대장' ...</t>
+          <t>기아차, 코로나19에 '패닉'..2분기 영업익 72.8%↓(종합)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>코스피, '개인 매수 VS 기관·외국인 매도'에 혼조 마감</t>
+          <t>"중국, 중남미에 코로나19 백신 지원 1조원 차관 약속"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>'장외시총 3조 돌파' 카카오게임즈, 신작 '가디언테일즈'도 순조...</t>
+          <t>中다롄시서 111일만에 본토 코로나19 확진자 나와</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>코스피 ‘기관과 외국인 매도’에 눌려 약보합, 코스닥은 이틀째 ...</t>
+          <t>코로나19로 고3 학생선수들 시름 깊어져</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>애널리스트 ‘비상장 기업’ 발굴 열중…SK바이오팜 흥행에 따른 ...</t>
+          <t>日도쿄 코로나19 신규 확진자 처음으로 300명↑</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>외국인, 삼성전자 다시 산다..바이오→IT 주도주 교체하나</t>
+          <t>알라딘, 유현준 라이브 북토크 '코로나 19 이후의 공간의 변화' 진행</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>코스피 2220선 숨고르기…외국인 하루만에 팔자</t>
+          <t>고양시, 정발산동 코로나 확진자 발생</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>다시 삼성전자 사는 외국인… 7월 1조653억원 순매수</t>
+          <t>코로나에 무너진 수출..2분기 성장률 IMF 이후 최악</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>코스피, 기관·외인 '팔자'에 약보합 마감… 2228.66포인트</t>
+          <t>코로나19 직격탄 맞은 LG디스플레이 2분기 적자 5170억원</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>대장주의 귀환...삼성전자에 올인하는 외국인, '선수교체' 시선집중</t>
+          <t>양희영·전인지, LPGA '포스트 코로나' 대회 출전</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>코스피 초반 오르고 코스닥 내려, SK케미칼 삼양사 유라테크 급등</t>
+          <t>방대본, 8월 말까지 2차 코로나19 항체 조사 결과 도출 예정</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>혐오 발언으로 몸살 중인 SNS 대책이 필요하다</t>
+          <t>검찰, 이만희 신천지 총회장 '코로나 방역방해' 혐의 2차 소환</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>코스피, EU 부양책 합의 및 美 기술주 부진 섞이며 혼조세</t>
+          <t>기아차 2Q 영업익 1451억..코로나 여파 속 "신차·환율 효과"</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>루머에 속고 테마에 멍든 당신, ‘시장’ 중심에 누가 있는지 보라</t>
+          <t>도쿄 코로나 신규 확진 366명.."연휴 기간 외출 자제"(종합)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>코스피 코스닥 장중 동반상승, 영보화학 두산중공업 서린바이오 급등</t>
+          <t>광화문 롯데카드 빌딩에서 코로나19 확진자 나와 직원 귀가</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>코스피, 혼조세 출발..2,230선 등락(종합)</t>
+          <t>코로나 팬데믹 6개월, 재테크·투자 도서 판매량 2배 증가</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>주도주 바통터치?..시클리컬 반격에 언택트 '움찔'</t>
+          <t>[기고 칼럼] 위기를 기회로... '포스트 코로나' 시대 대비해야</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>코스피 시총 상위 10종목 초반 약세, 삼성바이오로직스 현대차는 ...</t>
+          <t>질본 "코로나19 국내 '살얼음판', 해외 '폭발적'..생활방역 필수"</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[Invest]'공모주 평균 수익률 65%'...상장예심 청구, 최근 5년來 ...</t>
+          <t>이재정 교육감, "코로나19 이후 새로운 미래교육 펼쳐야"</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>코로나로 달라진 국민연금 투자..바이오 늘고 항공 줄고</t>
+          <t>은성수 금융위원장 "코로나19 금융 지원책 연장할 것"</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[오전 시황]코스피, 코스닥 약보합 출발</t>
+          <t>코로나 특수 누린 'K반도체'.."하반기도 양호할 것" 기대감(종합)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>'증시 입성' 향해 Game Start</t>
+          <t>롯데免, 광고 촬영 의상 판매 수익금 코로나 의료진 지원</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>美 기술주 훈풍..조정받은 'BBIG' 다시 들썩</t>
+          <t>"코로나19 증상, 의사도 분별 어렵다..발빠른 신고를"</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>외국인 삼성전자 사고 SK바이오팜 팔았다</t>
+          <t>자동차 부품사, 코로나로 매출 25% 줄고 필요자금은 41%만 확보</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>주식·채권 살수 있는 '금융상품권', 2030 재테크족에 인기</t>
+          <t>[속보] 기아차 '코로나 2분기' 적자만 면했다..영업익 73% ↓</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>잠시 쉰 네이버·카카오 3%대 동반 상승..반등 타이밍 왔나</t>
+          <t>서울동부지법 직원 코로나19 확진..청사 일부 폐쇄</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>게임 잘나간다..카카오게임즈·크래프톤은 얼마야?</t>
+          <t>코로나19 위험신고·대책 제안 20여일간 1천273건 접수</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>줄 잇는 상장취소..떠오르는 '공모주' 인기에 찬물 우려</t>
+          <t>한국산 코로나 방역키트 세계화..케이키트(K-Kit) 웹사이트 오픈</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[한진 남매의 난] '백기사' 델타항공, 한진칼 매각 카드 '만지작'</t>
+          <t>코로나19 가장 효과적 예방수단 ‘마스크’</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>뉴욕증시 Futures 선물 상승 출발, 나스닥지수 부활 SK케미칼+아...</t>
+          <t>코로나 때문에 집회금지? 프랑스는 달랐다</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>한국 언론사(史) 오점 남긴 채널A 기자 구속</t>
+          <t>[이슈분석]코로나19 여파 "가전 구매도 언택트로"</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>外人 대형주 vs 개인 성장주…"투자 성격차 드러나"</t>
+          <t>이스트스프링 "중국 A주, 코로나 여파에도 잠재 성장 동력 충분"</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[시가총액 100대기업] 두산밥캣, '그린뉴딜' 정책 기대감에 큰 폭...</t>
+          <t>네오누리콤, 코로나19 확산 방지 '네오 모두애愛 데일리마스크' 출시</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>카카오게임즈, 이달 말 상장 승인날 듯.. 시총은 3조원 육박</t>
+          <t>韓 근로자, 이라크 건설현장서 코로나19로 사망..이번이 세 번째</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[특징주] 네이버·카카오, 3~4%대 상승으로 회복세</t>
+          <t>교사수급 정책 코로나19로 '리셋'.. 채용 감축 결정 다음 정부로</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[TF특징주] 美 기술주 반등에 네이버·카카오 동반 강세</t>
+          <t>강경화, 27일 헝가리 외교장관과 면담..코로나 후 두 번째 대면</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2분기 실적 발표 앞둔 네이버·카카오, 관전 포인트는?</t>
+          <t>춘천시 코로나19 걱정 없는 363곳 안심식당 추진</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>카카오·네이버, 다시 급등..2분기 호실적 기대감</t>
+          <t>여수시, 포스트 코로나 토론회 24일 개최</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'카카오' 5% 이상 상승, 카카오 유니버스 확장 지속 - 삼성증권, BUY</t>
+          <t>트럼프 "코로나19 백신, 첫번째 아니면 마지막으로 맞을 것"</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'언택트 3총사' 시총 10조 실종에.. "버블" vs "조정"</t>
+          <t>광주시의원들, 코로나19 방역수칙 준수 대시민 호소</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이동재-한동훈 녹취록 공개..'검-언 유착' 의혹 싸고 공방 가열</t>
+          <t>롯데면세점, 코로나 의료진 돕는다… 특별한 기부 '눈길'</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'언택트 빅3' 날개 다시 펼까..네이버 카카오 엔씨 2Q실적 '청신호'</t>
+          <t>서울 서초구 한신교회에서 코로나19 확진자.."역학조사 중"</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>'2020 머니 무브' 돈은 어디로 흘렀나..사상 최대 유동성에 무너...</t>
+          <t>원주소방서, 코로나19 확산 막은 유공자 표창</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>뉴욕증시· 국제유가 2차 폭발, 코로나백신 FDA 승인 모더나+ 아...</t>
+          <t>신한금융, '그룹CEO 긴급 화상회의' 진행..'포스트 코로나 시대' ...</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>美 아마존 주가 '급등'...국내 언택트株도 '장중 껑충'</t>
+          <t>평택 미군기지 코로나 확진자 총 87명..7월 들어 65명 급증</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[송재경의 인사이트] 2200 뚫었다고 안심할 수 없다..지금은 '실...</t>
+          <t>“맨 처음이냐, 마지막이냐”...트럼프 대통령, ‘코로나19 백신 ...</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[증시 키워드] 아스트라제네카 임상 성공 소식에 신풍제약ㆍ일양...</t>
+          <t>‘코로나 쇼크’ 2분기 결국 마이너스, IMF이후 사상 최저</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>삼전, 외인 업고 증시 받치기..코스피 2200선 네번째 돌파</t>
+          <t>건설기술연구원, 코로나 극복 위해 90개 기업에 49억 지원</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[TF매매동향] 외국인·기관 모두 '삼성전자' 담았다</t>
+          <t>삼육대, 1학기 재학생 전원 '코로나 장학금' 30만원 지급</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2220선 안착한 코스피..지금 올라타도 될까</t>
+          <t>경기 이천 기숙학원 170명 집단식중독 증상.."코로나는 음성"</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[장외주식] 이오플로우 신고가 경신</t>
+          <t>빌 게이츠 "코로나19 백신 70억회분 이상 필요..수차례 접종해야"</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[마켓뷰] 1년9개월만에 790선 돌파한 코스닥</t>
+          <t>‘코로나 특수’ SK하이닉스 2Q 영업익 2조 육박</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[이항영의 오늘장 Key Point] 아마존·테슬라가 이끈 나스닥… 기...</t>
+          <t>호텔스닷컴, 포스트 코로나 시대의 5가지 여행 트렌드 발표해</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>코스피 2220선 껑충, 5개월만에 최고…외국인·기관 쌍끌이 매수</t>
+          <t>게임문화재단, 포스트 코로나 시대의 게임 온라인 세미나 개최</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>코스피 코스닥 '기관 외국인 매수'에 힘입어 나란히 1%대 올라</t>
+          <t>"포스트 코로나, 디지털 전환 속도에 달렸다"</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[5스타전략] 글로벌 증시 현황 및 시장 전략!</t>
+          <t>美 캘리포니아, 어쩌다 코로나19 최대 진앙지 됐나</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>스냅챗이 플랫폼으로 돌변한다 – 스냅 미니 출시</t>
+          <t>"쿠팡, 코로나19 집단감염 피해자에게 사과부터 해야"</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>그린 뉴딜 '대표 주자' 정의선 , 증시 대표선수 '현대차'</t>
+          <t>부산에 입항한 러시아 선박 수리업체 직원 1명 코로나19 확진</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>코스피, 外人·기관 매수에 1%대 상승···2230선 눈앞</t>
+          <t>코로나19 상황 속 한-중 인적교류 활성화 추진</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>다시 힘쓰는 언택트..코스피 2200선 회복</t>
+          <t>서부발전 임직원, 코로나19 극복 ‘나눔’ 실천</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>코스피, 2200선 코앞..1% 가까이 상승</t>
+          <t>조용병 신한금융 회장 "포스트 코로나 대비, 그룹사 역량 집중해야"</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>코스피, 외인·기관 '사자'에 1.4% 상승 마감… 2230선 턱밑</t>
+          <t>최용덕 동두천시장, 운영 재개 경로당 코로나19 방역상황 현장점검</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>리츠 협회장 "SK바이오팜-에이프로 이어 빅히트-카카오게임즈 등 ...</t>
+          <t>현대차, '코로나 한계'…２분기 실적 대폭 하락</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>'1300억대 순매수' 외국인이 돌아왔다, 코스피 ↑</t>
+          <t>해외 입국 고양시민, 자가격리 중 코로나19 확진 판정</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>美 나스닥 2.5%↑..韓도 언택트주 반등할까</t>
+          <t>유은혜 부총리 '포스트 코로나 교육 대전환을 위해'</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[STOCK] 엔씨, 2Q 실적기대치 '다운'에도 목표주가는 '업'</t>
+          <t>서울의료원, 키르기스스탄 의료진과 국제 온라인 컨퍼런스로 코로...</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>플리토, AI 고도화 수혜..성장 가능성에 주목-IBK</t>
+          <t>한화테크윈, AI가 마스크 여부 감지하는 '코로나 솔루션' 출시</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[증시브리핑] 美증시, 경기부양책·백신 개발 기대..주요지수 상...</t>
+          <t>'코로나19 확진' 채프먼, 개막전 합류 못한다..브리튼 대체 마무리</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>형님쉴땐 아우가..중소형 언택트株에 바통</t>
+          <t>&lt;뉴스G&gt; 코로나19 시대, 더욱 절실해진 문제</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[더벨][thebell League Table]14% 수익 비앤아이 ‘1위’…GVA·...</t>
+          <t>부산, 러시아發 코로나 공포 확산..한달새 러 선원 확진 46명</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>코스피 코스닥 동반상승 출발, 삼양홀딩스 신일제약 일양약품 급등</t>
+          <t>대기오염 개선된 중국의 '코로나 역설' 사망자 많은 미국엔 없었다</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[최석원 칼럼] 오르는 주식이 더 오르는 주식시장</t>
+          <t>제약사들 코로나19 여파 속 '건강기능식품' 시장 눈돌린다</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'미래차 동맹' 이재용-정의선...삼성·현대차그룹株 상승세 탈까</t>
+          <t>현대차, 코로나에 '직격탄'... 2분기 영업익 전년比 '반토막'</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[포털 검색 상위 종목] 일양약품, 진매트릭스 큰 폭 상승...신풍...</t>
+          <t>노인, 젊은층보다 코로나 스트레스 덜 받는다</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>테슬라 주식 너무 샀나.. 2분기 실적 우려 투자자들 긴장</t>
+          <t>태백 태수회, 코로나19 극복·지역경제 활성화 논의</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>美 나스닥 '사상최고' &amp; 마이크론 '급등'...삼성전자 · SK하이닉...</t>
+          <t>'신동빈 호텔' 시그니엘, 코로나19 속 독보적 객실점유율</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[SEN투자전략]성장주 단기 부담 해소 과정…"언택트주 여전히 매...</t>
+          <t>‘심심꾸러미’ 로 코로나블루 극복해요</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>플리토, 성장성 기반 내년 흑자전환 기대-IBK투자</t>
+          <t>포스트 코로나 대비, 공공 직업교육 역할 '주목'</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[시사금융용어] 中증시의 청년부추</t>
+          <t>車부품업계 "코로나19로 올해 매출 25% 감소 우려"</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>경기 회복 확인할까…지표 앞두고 증시 복귀한 外人</t>
+          <t>美 미완성 코로나 백신 벌써 싹쓸이 "이미 상업적 생산 개시"</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>코로나19 백신개발 기대↑…투자자 관심 '성장주→가치주'</t>
+          <t>코로나19 추가 확진자 '0'</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[코스피 마감]하루 만에 약보합..SK케미칼은 상한가</t>
+          <t>LG생건, 코로나19에도 '사상 최대 이익'..61분기 연속 성장</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>증시 변동성 여전한데…증권사, 상반기 '매수의견' 일변도</t>
+          <t>코로나19 확진자, 미국 395만 · 브라질 222만 · 인도 119만</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>월가, 제2 닷컴버블 붕괴 공포 확산..테슬라·FAANG·네이버·카...</t>
+          <t>[종합] '깜깜이' 발생 늘었다...코로나19 확진자, 신규 59명↑20...</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 테슬라 이어 아마존 (Amazon) 돌풍 이유는? 나스닥지...</t>
+          <t>코로나19에 가족 함께 즐기는 블록완구 인기</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>외국인, 바이오·언택트 팔고 삼성전자 쇼핑…1조 순매수</t>
+          <t>코로나19 잡는 '혈장치료제' 얼마나 아시나요</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>100조 뉴딜 정책, '수혜주를 찾아라'</t>
+          <t>[종합] 제주‘코로나19’26번 확진자 접촉자...최종 15명으로 확인</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>지상 최대의 IPO(?)...앤트그룹 상장 준비 착수</t>
+          <t>신라대 코로나블루 예방 위해‘마음건강검진’ 실시</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>조정 끝났나..반등하는 카카오·네이버</t>
+          <t>[뉴스큐브] 코로나19 신규 확진 59명..수도권에 72.9% 집중</t>
         </is>
       </c>
     </row>
